--- a/Links_template.xlsx
+++ b/Links_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/henriquefalconer/Desktop/Poli Júnior/NTec /Projetos/Web crawler/webcrawler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C05F9CFB-F0BD-044E-B1EC-B08DDF8B394F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{853605F5-2BE7-B646-A0AF-3F56B41A25D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13160" yWindow="-18120" windowWidth="23000" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8400" yWindow="-17680" windowWidth="23000" windowHeight="14980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Links" sheetId="1" r:id="rId1"/>
@@ -21,9 +21,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
-  <si>
-    <t>Nº</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="77">
+  <si>
+    <t>TABELA DE OBTENÇÃO DE DADOS</t>
+  </si>
+  <si>
+    <t>Configurações:</t>
+  </si>
+  <si>
+    <t>Instruções:</t>
+  </si>
+  <si>
+    <t>Apenas obter dados dos links cujos campos da linha estão vazios (mais seguro)</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Insira o novo link na primeira linha vazia da tabela, na coluna de "Links".
+    2. Não se preocupe nem com o estilo, nem com os valores das células da nova linha. Tudo isso será arrumado pelo programa.
+    3. Vá para a linha de comando na pasta deste arquivo e execute "scrapy crawl linkedin". Caso haja erros, siga as instruções que aparecerem na tela.</t>
+  </si>
+  <si>
+    <t>Conta existe</t>
   </si>
   <si>
     <t>Links</t>
@@ -42,6 +62,9 @@
   </si>
   <si>
     <t>Sobre</t>
+  </si>
+  <si>
+    <t>Sim</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/rebecca-liu-93a12a28/</t>
@@ -188,6 +211,21 @@
     <t>https://www.linkedin.com/company/mark/</t>
   </si>
   <si>
+    <t>https://www.linkedin.com/in/kaelahrussell/</t>
+  </si>
+  <si>
+    <t>Kaelah</t>
+  </si>
+  <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Senior Talent Acquisition Partner at Prodigy Game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We've all heard that saying 'do what you love, and love what you do'. Well, I'm happy to say that's exactly what I'm doing!  I've built a career in talent acquisition, starting in the agency world, then transitioned to corporate recruitment. I've become a trusted business partner and advisor when it comes to all things recruitment.  I love the excitement in finding the right person and helping Prodigy Game become stronger and better by adding top talent. </t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -209,53 +247,29 @@
     <t>nunsip-4kizgi-nefSyd</t>
   </si>
   <si>
-    <t>Não</t>
-  </si>
-  <si>
     <t>Conta bloqueada pelo Linkedin por muitas tentativas. Troque esta conta por outra, ou remova esta linha do Excel.</t>
   </si>
   <si>
     <t>asdrubal_dos_santos@gmail.com</t>
   </si>
   <si>
-    <t>Sim</t>
-  </si>
-  <si>
     <t>pedro_alcantara_siveira@gmail.com</t>
   </si>
   <si>
     <t>cleber_cunha_dasilva@gmail.com</t>
   </si>
   <si>
-    <t>TABELA DE OBTENÇÃO DE DADOS</t>
-  </si>
-  <si>
-    <t>Instruções:</t>
-  </si>
-  <si>
-    <t>Configurações:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1. Insira o novo link na primeira linha vazia da tabela, na coluna de "Links".
-    2. Não se preocupe nem com o estilo, nem com os valores das células da nova linha. Tudo isso será arrumado pelo programa.
-    3. Vá para a linha de comando na pasta deste arquivo e execute "scrapy crawl linkedin". Caso haja erros, siga as instruções que aparecerem na tela.</t>
-  </si>
-  <si>
-    <t>Apenas obter dados dos links cujos campos estão vazios 
-(mais seguro)</t>
-  </si>
-  <si>
-    <t>???????</t>
-  </si>
-  <si>
-    <t>???</t>
+    <t>emerencia_silveira@gmail.com</t>
+  </si>
+  <si>
+    <t>ezequiel_valentim@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -313,6 +327,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -356,6 +385,99 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -373,100 +495,100 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -524,6 +646,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -837,341 +969,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="62.83203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="16" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.1640625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="32.1640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="46.6640625" style="10" customWidth="1"/>
-    <col min="9" max="27" width="10.83203125" style="10" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="10"/>
+    <col min="1" max="1" width="10.83203125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="15" style="15" customWidth="1"/>
+    <col min="3" max="3" width="62.83203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16" style="15" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" style="15" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="32.1640625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="46.6640625" style="15" customWidth="1"/>
+    <col min="9" max="38" width="10.83203125" style="15" customWidth="1"/>
+    <col min="39" max="16384" width="10.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="36" customHeight="1">
-      <c r="B2" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="2:8" ht="25" customHeight="1">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" ht="37" customHeight="1">
-      <c r="B4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-    </row>
-    <row r="5" spans="2:8" ht="46" customHeight="1">
-      <c r="B5" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="15" t="s">
+    <row r="2" spans="2:8" ht="45" customHeight="1">
+      <c r="B2" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="2:8" ht="26" customHeight="1">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="29" customHeight="1">
+      <c r="B4" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
+      <c r="F4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="31"/>
+    </row>
+    <row r="5" spans="2:8" ht="37" customHeight="1">
+      <c r="B5" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+    </row>
+    <row r="6" spans="2:8" ht="46" customHeight="1">
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="25"/>
+    </row>
+    <row r="7" spans="2:8" ht="39" customHeight="1">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="9" spans="2:8" ht="20" customHeight="1">
+      <c r="B9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="340" customHeight="1">
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="34" customHeight="1">
+      <c r="B11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="136" customHeight="1">
+      <c r="B12" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="170" customHeight="1">
+      <c r="B13" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="25" customHeight="1">
+      <c r="B14" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="170" customHeight="1">
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="51" customHeight="1">
+      <c r="B16" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="51" customHeight="1">
+      <c r="B17" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="25" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="2:8" ht="25" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" ht="153" customHeight="1">
+      <c r="B20" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-    </row>
-    <row r="6" spans="2:8" ht="45" customHeight="1">
-      <c r="B6" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="2:8" ht="41" customHeight="1">
-      <c r="D7" s="16"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-    </row>
-    <row r="8" spans="2:8" ht="25" customHeight="1"/>
-    <row r="9" spans="2:8" ht="26" customHeight="1">
-      <c r="B9" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="340" customHeight="1">
-      <c r="B10" s="5">
-        <v>-2</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="34" customHeight="1">
-      <c r="B11" s="5">
-        <v>-1</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="136" customHeight="1">
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="170" customHeight="1">
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="17" customHeight="1">
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" ht="170" customHeight="1">
-      <c r="B15" s="5">
-        <v>3</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" ht="51" customHeight="1">
-      <c r="B16" s="5">
-        <v>4</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="51" customHeight="1">
-      <c r="B17" s="5">
-        <v>5</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17" customHeight="1">
-      <c r="B18" s="5">
-        <v>6</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" ht="17" customHeight="1">
-      <c r="B19" s="5">
-        <v>7</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="G20" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="F5:H7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="F4:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D6">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Não"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+      <formula>"Sim"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Não"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"Sim"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1186,146 +1341,73 @@
     <hyperlink ref="C17" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C18" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C19" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C10" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C11" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C13" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C14" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C15" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C16" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C18" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C19" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C12" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C15" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C16" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C19" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C10" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C11" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C12" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C13" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C14" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C16" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C17" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C18" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C19" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C10" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C11" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C12" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C13" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C14" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C15" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C16" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C17" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C18" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C19" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C10" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C11" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C12" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C14" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C15" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C16" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C17" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C18" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C19" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C10" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C11" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C12" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C13" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C14" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C15" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C16" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C17" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C18" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C19" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C10" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C12" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C13" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C14" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C15" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C17" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C18" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C19" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C10" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C11" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C12" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C14" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C15" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C16" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C17" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C18" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C19" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C10" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C11" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C12" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C13" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C14" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C15" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C16" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C17" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C18" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C19" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C10" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C11" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C12" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C13" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C14" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C15" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C16" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C17" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C18" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C19" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C10" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C11" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C12" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C13" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C14" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C15" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C16" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C17" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C18" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C19" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C10" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C11" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C12" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C13" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C14" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C15" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C16" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C17" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C18" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C19" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C10" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C11" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C12" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C13" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C14" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C15" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C16" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C17" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C18" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C19" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C10" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C11" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C12" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C13" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C14" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C15" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C16" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C17" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C18" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
-    <hyperlink ref="C19" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="C20" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C11" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C13" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C14" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C15" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C17" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C18" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C19" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C11" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C14" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C17" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C18" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C10" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C11" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C12" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C13" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C14" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C15" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C16" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C19" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C20" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C10" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C12" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C13" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C14" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C15" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C16" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C17" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C18" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C19" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C20" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C10" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C11" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C12" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C13" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C14" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C15" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C16" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C17" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C18" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C19" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C20" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C10" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C11" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C12" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C13" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C14" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C15" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C16" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C17" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C18" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C19" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C20" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1333,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1344,93 +1426,137 @@
     <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="38.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="64.83203125" style="1" customWidth="1"/>
-    <col min="7" max="21" width="10.83203125" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="32" width="10.83203125" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="17" customHeight="1">
-      <c r="B2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>56</v>
+      <c r="B2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="51" customHeight="1">
-      <c r="B3" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="5">
+      <c r="B3" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="18">
         <v>8</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>60</v>
+      <c r="E3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="51" customHeight="1">
-      <c r="B4" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="5">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="18">
+        <v>35</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="51" customHeight="1">
-      <c r="B5" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="18">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>60</v>
+      <c r="E5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="41" customHeight="1">
-      <c r="B6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D6" s="5">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="18">
+        <v>39</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="53" customHeight="1">
+      <c r="B7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="18">
+        <v>24</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="17" customHeight="1">
+      <c r="B8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="18">
+        <v>2</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="C10" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2 E1:E1048576">
